--- a/girls.xlsx
+++ b/girls.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\GitHubDump\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="570" yWindow="390" windowWidth="15000" windowHeight="11430" tabRatio="951" activeTab="1"/>
+    <workbookView xWindow="570" yWindow="390" windowWidth="15000" windowHeight="11430" tabRatio="951"/>
   </bookViews>
   <sheets>
     <sheet name="thai waitress" sheetId="29" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="138">
   <si>
     <t>O</t>
   </si>
@@ -429,6 +429,30 @@
   </si>
   <si>
     <t>suicidal</t>
+  </si>
+  <si>
+    <t>Pros</t>
+  </si>
+  <si>
+    <t>Cons</t>
+  </si>
+  <si>
+    <t>Based on history it should fail</t>
+  </si>
+  <si>
+    <t>When I try and talk to her she will quickly go away</t>
+  </si>
+  <si>
+    <t>She's so pretty why the heck would she be single?</t>
+  </si>
+  <si>
+    <t>I have to try. She looks at me more than Anne.</t>
+  </si>
+  <si>
+    <t>The learn Thai strat didn't real help with Ann. Just today got negative body language…</t>
+  </si>
+  <si>
+    <t>I completely misread Dewy</t>
   </si>
 </sst>
 </file>
@@ -511,7 +535,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -521,6 +545,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1"/>
@@ -829,19 +854,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.375" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="58.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" s="8" t="s">
         <v>107</v>
       </c>
@@ -849,8 +875,14 @@
         <v>120</v>
       </c>
       <c r="D1" s="8"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>117</v>
       </c>
@@ -860,8 +892,14 @@
       <c r="C2">
         <v>-10000</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>117</v>
       </c>
@@ -874,9 +912,34 @@
       <c r="D3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>42252</v>
+      </c>
+      <c r="B4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
+      <c r="F5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>137</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1500,10 +1563,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1620,6 +1683,17 @@
       </c>
       <c r="E10" s="4">
         <v>42249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
